--- a/MSDO/Assignment2/ISP reviews.xlsx
+++ b/MSDO/Assignment2/ISP reviews.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Isp</t>
   </si>
@@ -34,14 +34,153 @@
   </si>
   <si>
     <t>Electric Propulsion</t>
+  </si>
+  <si>
+    <t>NASA Advanced Mission Cost Model (from HSMAD)</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>zi</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dry mass (lbs)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>initial operating capability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>Block number</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>1999-2016 Inflation</t>
+  </si>
+  <si>
+    <t>http://ntrs.nasa.gov/archive/nasa/casi.ntrs.nasa.gov/20140005340.pdf</t>
+  </si>
+  <si>
+    <t>http://ntrs.nasa.gov/archive/nasa/casi.ntrs.nasa.gov/20140005476.pdf</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/sites/default/files/files/CEH_AppD.pdf</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/sites/default/files/files/01_CEH_Main_Body_02_27_15.pdf</t>
+  </si>
+  <si>
+    <t>Inertr Mass Ratio</t>
+  </si>
+  <si>
+    <t>What about the electric propulsion nuclear generator or solar panel mass?  NTR reactor mass seems high?</t>
+  </si>
+  <si>
+    <t>Total Development Cost ($M 1999)</t>
+  </si>
+  <si>
+    <t>Total Development Cost ($M 2016)</t>
+  </si>
+  <si>
+    <t>Prop Mass (kg)</t>
+  </si>
+  <si>
+    <t>Engine Mass (kg)</t>
+  </si>
+  <si>
+    <t>Static Engine Mass (kg)</t>
+  </si>
+  <si>
+    <t>SSME weights 7,775</t>
+  </si>
+  <si>
+    <t>These prices are WAY too high… the mass seems to be really large for these based on what I'd expect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,13 +205,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -192,11 +349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="91446272"/>
-        <c:axId val="91444736"/>
+        <c:axId val="41240448"/>
+        <c:axId val="41692160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91446272"/>
+        <c:axId val="41240448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="485"/>
@@ -226,12 +383,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91444736"/>
+        <c:crossAx val="41692160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91444736"/>
+        <c:axId val="41692160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -261,7 +418,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91446272"/>
+        <c:crossAx val="41240448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -386,11 +543,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95582848"/>
-        <c:axId val="95732864"/>
+        <c:axId val="47000192"/>
+        <c:axId val="50230016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95582848"/>
+        <c:axId val="47000192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="485"/>
@@ -420,12 +577,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95732864"/>
+        <c:crossAx val="50230016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95732864"/>
+        <c:axId val="50230016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +611,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95582848"/>
+        <c:crossAx val="47000192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -572,11 +729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95731712"/>
-        <c:axId val="95716864"/>
+        <c:axId val="46973312"/>
+        <c:axId val="46975232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95731712"/>
+        <c:axId val="46973312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,12 +762,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95716864"/>
+        <c:crossAx val="46975232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95716864"/>
+        <c:axId val="46975232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -640,7 +797,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95731712"/>
+        <c:crossAx val="46973312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -765,11 +922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104902016"/>
-        <c:axId val="105092608"/>
+        <c:axId val="47040768"/>
+        <c:axId val="47042944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104902016"/>
+        <c:axId val="47040768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2500"/>
@@ -799,12 +956,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105092608"/>
+        <c:crossAx val="47042944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105092608"/>
+        <c:axId val="47042944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -834,7 +991,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104902016"/>
+        <c:crossAx val="47040768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -1270,15 +1427,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:T10"/>
+  <dimension ref="A5:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:T10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -1428,9 +1588,589 @@
         <v>4</v>
       </c>
     </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5.6499999999999996E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>0.59409999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>0.66039999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>80.599000000000004</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3.8084999999999997E-55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>-0.3553</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>1.5690999999999999</v>
+      </c>
+      <c r="E57" s="6">
+        <v>445</v>
+      </c>
+      <c r="F57" s="6">
+        <v>452</v>
+      </c>
+      <c r="G57" s="6">
+        <v>465</v>
+      </c>
+      <c r="H57" s="6">
+        <v>480</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7">
+        <v>850</v>
+      </c>
+      <c r="K57" s="7">
+        <v>950</v>
+      </c>
+      <c r="L57" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7">
+        <v>3000</v>
+      </c>
+      <c r="O57" s="7">
+        <v>3800</v>
+      </c>
+      <c r="P57" s="7">
+        <v>5000</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="9">
+        <f>F59*0.95</f>
+        <v>44433.4</v>
+      </c>
+      <c r="F59" s="9">
+        <f>F69*2.2/F58</f>
+        <v>46772.000000000007</v>
+      </c>
+      <c r="G59" s="9">
+        <f>F59*1.1</f>
+        <v>51449.200000000012</v>
+      </c>
+      <c r="H59" s="9">
+        <f>F59*1.25</f>
+        <v>58465.000000000007</v>
+      </c>
+      <c r="J59" s="9">
+        <f>J69*2.2</f>
+        <v>96326.34</v>
+      </c>
+      <c r="K59" s="9">
+        <f>J59*1.1</f>
+        <v>105958.974</v>
+      </c>
+      <c r="L59" s="9">
+        <f>J59*1.15</f>
+        <v>110775.29099999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>2.39</v>
+      </c>
+      <c r="F60">
+        <v>2.39</v>
+      </c>
+      <c r="G60">
+        <v>2.39</v>
+      </c>
+      <c r="H60">
+        <v>2.39</v>
+      </c>
+      <c r="J60">
+        <v>2.39</v>
+      </c>
+      <c r="K60">
+        <v>2.39</v>
+      </c>
+      <c r="L60">
+        <v>2.39</v>
+      </c>
+      <c r="N60">
+        <v>2.39</v>
+      </c>
+      <c r="O60">
+        <v>2.39</v>
+      </c>
+      <c r="P60">
+        <v>2.39</v>
+      </c>
+      <c r="Q60">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61">
+        <v>2030</v>
+      </c>
+      <c r="F61">
+        <v>2030</v>
+      </c>
+      <c r="G61">
+        <v>2030</v>
+      </c>
+      <c r="H61">
+        <v>2030</v>
+      </c>
+      <c r="J61">
+        <v>2030</v>
+      </c>
+      <c r="K61">
+        <v>2030</v>
+      </c>
+      <c r="L61">
+        <v>2030</v>
+      </c>
+      <c r="N61">
+        <v>2030</v>
+      </c>
+      <c r="O61">
+        <v>2030</v>
+      </c>
+      <c r="P61">
+        <v>2030</v>
+      </c>
+      <c r="Q61">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>-1.5</v>
+      </c>
+      <c r="F63">
+        <v>-0.5</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1.5</v>
+      </c>
+      <c r="K63">
+        <v>1.5</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>0.5</v>
+      </c>
+      <c r="O63">
+        <v>0.5</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="J66" s="8">
+        <v>34500</v>
+      </c>
+      <c r="K66">
+        <f>J66*1.05</f>
+        <v>36225</v>
+      </c>
+      <c r="L66">
+        <f>J66*1.1</f>
+        <v>37950</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>0.17</v>
+      </c>
+      <c r="F67">
+        <v>0.18</v>
+      </c>
+      <c r="G67">
+        <v>0.19</v>
+      </c>
+      <c r="H67">
+        <v>0.2</v>
+      </c>
+      <c r="J67">
+        <v>0.1</v>
+      </c>
+      <c r="K67">
+        <v>0.11</v>
+      </c>
+      <c r="L67">
+        <v>0.12</v>
+      </c>
+      <c r="N67">
+        <v>0.18</v>
+      </c>
+      <c r="O67">
+        <v>0.19</v>
+      </c>
+      <c r="P67">
+        <v>0.2</v>
+      </c>
+      <c r="Q67">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68">
+        <v>125060</v>
+      </c>
+      <c r="J68">
+        <v>92847</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69">
+        <v>21260</v>
+      </c>
+      <c r="J69" s="9">
+        <f>J66+J68*0.1</f>
+        <v>43784.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f>SUM(F68:F69)</f>
+        <v>146320</v>
+      </c>
+      <c r="J70">
+        <f>SUM(J68:J69)</f>
+        <v>136631.70000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="10">
+        <f>$B$51*E58^$B$52*E59*$B$53*$B$54^E60*$B$55^(1/(E61-1900))*E62^$B$56*$B$57^E63</f>
+        <v>78358.521011129968</v>
+      </c>
+      <c r="F73" s="10">
+        <f>$B$51*F58^$B$52*F59*$B$53*$B$54^F60*$B$55^(1/(F61-1900))*F62^$B$56*$B$57^F63</f>
+        <v>129423.53191427796</v>
+      </c>
+      <c r="G73" s="10">
+        <f t="shared" ref="G73:H73" si="0">$B$51*G58^$B$52*G59*$B$53*$B$54^G60*$B$55^(1/(G61-1900))*G62^$B$56*$B$57^G63</f>
+        <v>205966.4426147528</v>
+      </c>
+      <c r="H73" s="10">
+        <f t="shared" si="0"/>
+        <v>469807.96539144288</v>
+      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10">
+        <f t="shared" ref="I73:L73" si="1">$B$51*J58^$B$52*J59*$B$53*$B$54^J60*$B$55^(1/(J61-1900))*J62^$B$56*$B$57^J63</f>
+        <v>969604.87901508925</v>
+      </c>
+      <c r="K73" s="10">
+        <f t="shared" si="1"/>
+        <v>1066565.3669165981</v>
+      </c>
+      <c r="L73" s="10">
+        <f t="shared" si="1"/>
+        <v>1396747.6319761402</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="10">
+        <f>E73*$G$54</f>
+        <v>111269.09983580455</v>
+      </c>
+      <c r="F74" s="10">
+        <f t="shared" ref="F74:H74" si="2">F73*$G$54</f>
+        <v>183781.4153182747</v>
+      </c>
+      <c r="G74" s="10">
+        <f t="shared" si="2"/>
+        <v>292472.34851294896</v>
+      </c>
+      <c r="H74" s="10">
+        <f t="shared" si="2"/>
+        <v>667127.31085584883</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10">
+        <f t="shared" ref="J74" si="3">J73*$G$54</f>
+        <v>1376838.9282014268</v>
+      </c>
+      <c r="K74" s="10">
+        <f t="shared" ref="K74" si="4">K73*$G$54</f>
+        <v>1514522.8210215692</v>
+      </c>
+      <c r="L74" s="10">
+        <f t="shared" ref="L74" si="5">L73*$G$54</f>
+        <v>1983381.6374061189</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="N56:Q56"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E54" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/MSDO/Assignment2/ISP reviews.xlsx
+++ b/MSDO/Assignment2/ISP reviews.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cces\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="26835" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -145,7 +150,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -216,16 +221,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -237,6 +242,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,7 +280,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -349,11 +356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41240448"/>
-        <c:axId val="41692160"/>
+        <c:axId val="169146240"/>
+        <c:axId val="168322352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41240448"/>
+        <c:axId val="169146240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="485"/>
@@ -376,19 +383,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41692160"/>
+        <c:crossAx val="168322352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41692160"/>
+        <c:axId val="168322352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -411,14 +417,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41240448"/>
+        <c:crossAx val="169146240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -543,11 +548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47000192"/>
-        <c:axId val="50230016"/>
+        <c:axId val="167375680"/>
+        <c:axId val="167376464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47000192"/>
+        <c:axId val="167375680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="485"/>
@@ -577,12 +582,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50230016"/>
+        <c:crossAx val="167376464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50230016"/>
+        <c:axId val="167376464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,7 +616,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47000192"/>
+        <c:crossAx val="167375680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -658,7 +663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -729,11 +733,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46973312"/>
-        <c:axId val="46975232"/>
+        <c:axId val="167377248"/>
+        <c:axId val="125196528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46973312"/>
+        <c:axId val="167377248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,19 +759,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46975232"/>
+        <c:crossAx val="125196528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46975232"/>
+        <c:axId val="125196528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -790,14 +793,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46973312"/>
+        <c:crossAx val="167377248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -845,7 +847,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -922,11 +923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47040768"/>
-        <c:axId val="47042944"/>
+        <c:axId val="125198488"/>
+        <c:axId val="125191040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47040768"/>
+        <c:axId val="125198488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2500"/>
@@ -949,19 +950,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47042944"/>
+        <c:crossAx val="125191040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47042944"/>
+        <c:axId val="125191040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -984,14 +984,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47040768"/>
+        <c:crossAx val="125198488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -1183,7 +1182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1218,7 +1217,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1429,13 +1428,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="12.42578125" customWidth="1"/>
@@ -1646,25 +1645,25 @@
       <c r="B56">
         <v>-0.3553</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -1673,39 +1672,39 @@
       <c r="B57">
         <v>1.5690999999999999</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>445</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>452</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>465</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>480</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7">
+      <c r="I57" s="6"/>
+      <c r="J57" s="6">
         <v>850</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="6">
         <v>950</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="6">
         <v>1000</v>
       </c>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7">
+      <c r="M57" s="6"/>
+      <c r="N57" s="6">
         <v>3000</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O57" s="6">
         <v>3800</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="6">
         <v>5000</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="6">
         <v>9000</v>
       </c>
     </row>
@@ -1745,31 +1744,31 @@
       <c r="B59" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <f>F59*0.95</f>
         <v>44433.4</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="8">
         <f>F69*2.2/F58</f>
         <v>46772.000000000007</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="8">
         <f>F59*1.1</f>
         <v>51449.200000000012</v>
       </c>
-      <c r="H59" s="9">
-        <f>F59*1.25</f>
-        <v>58465.000000000007</v>
-      </c>
-      <c r="J59" s="9">
+      <c r="H59" s="8">
+        <f>F59*1.2</f>
+        <v>56126.400000000009</v>
+      </c>
+      <c r="J59" s="8">
         <f>J69*2.2</f>
         <v>96326.34</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="8">
         <f>J59*1.1</f>
         <v>105958.974</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L59" s="8">
         <f>J59*1.15</f>
         <v>110775.29099999998</v>
       </c>
@@ -1905,10 +1904,10 @@
         <v>25</v>
       </c>
       <c r="E63">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="F63">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -1917,13 +1916,13 @@
         <v>1</v>
       </c>
       <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
         <v>1.5</v>
-      </c>
-      <c r="K63">
-        <v>1.5</v>
-      </c>
-      <c r="L63">
-        <v>2</v>
       </c>
       <c r="N63">
         <v>0.5</v>
@@ -1954,7 +1953,7 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="7">
         <v>34500</v>
       </c>
       <c r="K66">
@@ -2037,7 +2036,7 @@
       <c r="F69">
         <v>21260</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="8">
         <f>J66+J68*0.1</f>
         <v>43784.7</v>
       </c>
@@ -2056,41 +2055,41 @@
       <c r="A73" t="s">
         <v>33</v>
       </c>
-      <c r="E73" s="10">
-        <f>$B$51*E58^$B$52*E59*$B$53*$B$54^E60*$B$55^(1/(E61-1900))*E62^$B$56*$B$57^E63</f>
-        <v>78358.521011129968</v>
-      </c>
-      <c r="F73" s="10">
-        <f>$B$51*F58^$B$52*F59*$B$53*$B$54^F60*$B$55^(1/(F61-1900))*F62^$B$56*$B$57^F63</f>
-        <v>129423.53191427796</v>
-      </c>
-      <c r="G73" s="10">
-        <f t="shared" ref="G73:H73" si="0">$B$51*G58^$B$52*G59*$B$53*$B$54^G60*$B$55^(1/(G61-1900))*G62^$B$56*$B$57^G63</f>
-        <v>205966.4426147528</v>
-      </c>
-      <c r="H73" s="10">
+      <c r="E73" s="9">
+        <f t="shared" ref="E73:G73" si="0">$B$51*E58^$B$52*E59^$B$53*$B$54^E60*$B$55^(1/(E61-1900))*E62^$B$56*$B$57^E63</f>
+        <v>2500.8733149891486</v>
+      </c>
+      <c r="F73" s="9">
         <f t="shared" si="0"/>
-        <v>469807.96539144288</v>
-      </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10">
-        <f t="shared" ref="I73:L73" si="1">$B$51*J58^$B$52*J59*$B$53*$B$54^J60*$B$55^(1/(J61-1900))*J62^$B$56*$B$57^J63</f>
-        <v>969604.87901508925</v>
-      </c>
-      <c r="K73" s="10">
+        <v>2587.0392846159261</v>
+      </c>
+      <c r="G73" s="9">
+        <f t="shared" si="0"/>
+        <v>7834.390629108686</v>
+      </c>
+      <c r="H73" s="9">
+        <f>$B$51*H58^$B$52*H59^$B$53*$B$54^H60*$B$55^(1/(H61-1900))*H62^$B$56*$B$57^H63</f>
+        <v>16655.8717264716</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9">
+        <f t="shared" ref="J73:M73" si="1">$B$51*J58^$B$52*J59^$B$53*$B$54^J60*$B$55^(1/(J61-1900))*J62^$B$56*$B$57^J63</f>
+        <v>23794.82933758236</v>
+      </c>
+      <c r="K73" s="9">
         <f t="shared" si="1"/>
-        <v>1066565.3669165981</v>
-      </c>
-      <c r="L73" s="10">
+        <v>25340.68343409821</v>
+      </c>
+      <c r="L73" s="9">
         <f t="shared" si="1"/>
-        <v>1396747.6319761402</v>
-      </c>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10" t="s">
+        <v>32688.331925819672</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2098,41 +2097,41 @@
       <c r="A74" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="9">
         <f>E73*$G$54</f>
-        <v>111269.09983580455</v>
-      </c>
-      <c r="F74" s="10">
+        <v>3551.240107284591</v>
+      </c>
+      <c r="F74" s="9">
         <f t="shared" ref="F74:H74" si="2">F73*$G$54</f>
-        <v>183781.4153182747</v>
-      </c>
-      <c r="G74" s="10">
+        <v>3673.5957841546151</v>
+      </c>
+      <c r="G74" s="9">
         <f t="shared" si="2"/>
-        <v>292472.34851294896</v>
-      </c>
-      <c r="H74" s="10">
+        <v>11124.834693334333</v>
+      </c>
+      <c r="H74" s="9">
         <f t="shared" si="2"/>
-        <v>667127.31085584883</v>
-      </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10">
+        <v>23651.337851589669</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9">
         <f t="shared" ref="J74" si="3">J73*$G$54</f>
-        <v>1376838.9282014268</v>
-      </c>
-      <c r="K74" s="10">
+        <v>33788.657659366952</v>
+      </c>
+      <c r="K74" s="9">
         <f t="shared" ref="K74" si="4">K73*$G$54</f>
-        <v>1514522.8210215692</v>
-      </c>
-      <c r="L74" s="10">
+        <v>35983.770476419457</v>
+      </c>
+      <c r="L74" s="9">
         <f t="shared" ref="L74" si="5">L73*$G$54</f>
-        <v>1983381.6374061189</v>
-      </c>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
+        <v>46417.431334663932</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">

--- a/MSDO/Assignment2/ISP reviews.xlsx
+++ b/MSDO/Assignment2/ISP reviews.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cces\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Isp</t>
   </si>
@@ -140,7 +135,13 @@
     <t>SSME weights 7,775</t>
   </si>
   <si>
-    <t>These prices are WAY too high… the mass seems to be really large for these based on what I'd expect</t>
+    <t>http://www.esa.int/Our_Activities/Human_Spaceflight/Space_Shuttle/Shuttle_technical_facts</t>
+  </si>
+  <si>
+    <t>The NTR does not seem to be reasonable as it doesn’t reduce propellant mass by all that much….</t>
+  </si>
+  <si>
+    <t>Total engine and propulsion mas (kg)</t>
   </si>
 </sst>
 </file>
@@ -356,11 +357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="169146240"/>
-        <c:axId val="168322352"/>
+        <c:axId val="47951872"/>
+        <c:axId val="47954176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169146240"/>
+        <c:axId val="47951872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="485"/>
@@ -389,12 +390,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168322352"/>
+        <c:crossAx val="47954176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168322352"/>
+        <c:axId val="47954176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -423,7 +424,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169146240"/>
+        <c:crossAx val="47951872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -548,11 +549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167375680"/>
-        <c:axId val="167376464"/>
+        <c:axId val="55450624"/>
+        <c:axId val="78626176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167375680"/>
+        <c:axId val="55450624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="485"/>
@@ -582,12 +583,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167376464"/>
+        <c:crossAx val="78626176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167376464"/>
+        <c:axId val="78626176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +617,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167375680"/>
+        <c:crossAx val="55450624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -733,11 +734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167377248"/>
-        <c:axId val="125196528"/>
+        <c:axId val="51437952"/>
+        <c:axId val="51439872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167377248"/>
+        <c:axId val="51437952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,12 +766,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125196528"/>
+        <c:crossAx val="51439872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125196528"/>
+        <c:axId val="51439872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -799,7 +800,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167377248"/>
+        <c:crossAx val="51437952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -923,11 +924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125198488"/>
-        <c:axId val="125191040"/>
+        <c:axId val="54692096"/>
+        <c:axId val="58392960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125198488"/>
+        <c:axId val="54692096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2500"/>
@@ -956,12 +957,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125191040"/>
+        <c:crossAx val="58392960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125191040"/>
+        <c:axId val="58392960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -990,7 +991,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125198488"/>
+        <c:crossAx val="54692096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -1182,7 +1183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1217,7 +1218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1426,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:T82"/>
+  <dimension ref="A5:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,10 +1864,10 @@
         <v>23</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -1904,19 +1905,19 @@
         <v>25</v>
       </c>
       <c r="E63">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="F63">
         <v>-2</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -2040,8 +2041,14 @@
         <f>J66+J68*0.1</f>
         <v>43784.7</v>
       </c>
+      <c r="R69" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
       <c r="F70">
         <f>SUM(F68:F69)</f>
         <v>146320</v>
@@ -2057,15 +2064,15 @@
       </c>
       <c r="E73" s="9">
         <f t="shared" ref="E73:G73" si="0">$B$51*E58^$B$52*E59^$B$53*$B$54^E60*$B$55^(1/(E61-1900))*E62^$B$56*$B$57^E63</f>
-        <v>2500.8733149891486</v>
+        <v>1560.6676341627724</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" si="0"/>
-        <v>2587.0392846159261</v>
+        <v>2022.3069115960209</v>
       </c>
       <c r="G73" s="9">
         <f t="shared" si="0"/>
-        <v>7834.390629108686</v>
+        <v>4992.9199089342219</v>
       </c>
       <c r="H73" s="9">
         <f>$B$51*H58^$B$52*H59^$B$53*$B$54^H60*$B$55^(1/(H61-1900))*H62^$B$56*$B$57^H63</f>
@@ -2073,8 +2080,8 @@
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9">
-        <f t="shared" ref="J73:M73" si="1">$B$51*J58^$B$52*J59^$B$53*$B$54^J60*$B$55^(1/(J61-1900))*J62^$B$56*$B$57^J63</f>
-        <v>23794.82933758236</v>
+        <f t="shared" ref="J73:L73" si="1">$B$51*J58^$B$52*J59^$B$53*$B$54^J60*$B$55^(1/(J61-1900))*J62^$B$56*$B$57^J63</f>
+        <v>18995.786645201308</v>
       </c>
       <c r="K73" s="9">
         <f t="shared" si="1"/>
@@ -2089,9 +2096,7 @@
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
-      <c r="R73" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="R73" s="9"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -2099,15 +2104,15 @@
       </c>
       <c r="E74" s="9">
         <f>E73*$G$54</f>
-        <v>3551.240107284591</v>
+        <v>2216.1480405111365</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" ref="F74:H74" si="2">F73*$G$54</f>
-        <v>3673.5957841546151</v>
+        <v>2871.6758144663495</v>
       </c>
       <c r="G74" s="9">
         <f t="shared" si="2"/>
-        <v>11124.834693334333</v>
+        <v>7089.9462706865943</v>
       </c>
       <c r="H74" s="9">
         <f t="shared" si="2"/>
@@ -2116,7 +2121,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9">
         <f t="shared" ref="J74" si="3">J73*$G$54</f>
-        <v>33788.657659366952</v>
+        <v>26974.017036185855</v>
       </c>
       <c r="K74" s="9">
         <f t="shared" ref="K74" si="4">K73*$G$54</f>
@@ -2156,6 +2161,11 @@
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/MSDO/Assignment2/ISP reviews.xlsx
+++ b/MSDO/Assignment2/ISP reviews.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Isp</t>
   </si>
@@ -142,6 +142,54 @@
   </si>
   <si>
     <t>Total engine and propulsion mas (kg)</t>
+  </si>
+  <si>
+    <t>http://www.thespacereview.com/article/1579/1</t>
+  </si>
+  <si>
+    <t>Program Commenced</t>
+  </si>
+  <si>
+    <t>Program Retired</t>
+  </si>
+  <si>
+    <t>First Enterprise in Air Flight Test</t>
+  </si>
+  <si>
+    <t>First Space-Worthy shuttle launch - Columia STS 1</t>
+  </si>
+  <si>
+    <t>Columbia manufactured and delivered</t>
+  </si>
+  <si>
+    <t>Challenger delivered</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Atlantis</t>
+  </si>
+  <si>
+    <t>NASA Original Price Estimate</t>
+  </si>
+  <si>
+    <t>2011 $</t>
+  </si>
+  <si>
+    <t>% of total</t>
+  </si>
+  <si>
+    <t>NRE</t>
+  </si>
+  <si>
+    <t>Challenger Disaster</t>
+  </si>
+  <si>
+    <t>Columbia Disaster</t>
+  </si>
+  <si>
+    <t>Endeavour built to replace Challenger</t>
   </si>
 </sst>
 </file>
@@ -281,6 +329,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -357,11 +406,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47951872"/>
-        <c:axId val="47954176"/>
+        <c:axId val="105672704"/>
+        <c:axId val="105674624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47951872"/>
+        <c:axId val="105672704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="485"/>
@@ -384,18 +433,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47954176"/>
+        <c:crossAx val="105674624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47954176"/>
+        <c:axId val="105674624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -418,13 +468,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47951872"/>
+        <c:crossAx val="105672704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -549,11 +600,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55450624"/>
-        <c:axId val="78626176"/>
+        <c:axId val="105691008"/>
+        <c:axId val="105705472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55450624"/>
+        <c:axId val="105691008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="485"/>
@@ -583,12 +634,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78626176"/>
+        <c:crossAx val="105705472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78626176"/>
+        <c:axId val="105705472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +668,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55450624"/>
+        <c:crossAx val="105691008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -664,6 +715,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -734,11 +786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51437952"/>
-        <c:axId val="51439872"/>
+        <c:axId val="105066496"/>
+        <c:axId val="105068416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51437952"/>
+        <c:axId val="105066496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,18 +812,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51439872"/>
+        <c:crossAx val="105068416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51439872"/>
+        <c:axId val="105068416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -794,13 +847,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51437952"/>
+        <c:crossAx val="105066496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -848,6 +902,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -924,11 +979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54692096"/>
-        <c:axId val="58392960"/>
+        <c:axId val="131598208"/>
+        <c:axId val="131600384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54692096"/>
+        <c:axId val="131598208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2500"/>
@@ -951,18 +1006,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58392960"/>
+        <c:crossAx val="131600384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58392960"/>
+        <c:axId val="131600384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -985,18 +1041,188 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54692096"/>
+        <c:crossAx val="131598208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$78:$I$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$78:$J$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26974.017036185855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40718.104055823904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51808.779917026295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61465.223947798768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70178.439515539343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78206.938508149193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85707.410338511967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92783.63623643943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99508.711397715044</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105936.50173927273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134791.1704401827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="47012096"/>
+        <c:axId val="47010560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="47012096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47010560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="47010560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47012096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1135,6 +1361,91 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>446995</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="chart"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18510250"/>
+          <a:ext cx="6151412" cy="3640667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1427,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:T85"/>
+  <dimension ref="A5:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,29 +2454,233 @@
         <v>38</v>
       </c>
     </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>26974.017036185855</v>
+      </c>
+    </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>40718.104055823904</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>51808.779917026295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <v>61465.223947798768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>70178.439515539343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>6</v>
+      </c>
+      <c r="J83">
+        <v>78206.938508149193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>7</v>
+      </c>
+      <c r="J84">
+        <v>85707.410338511967</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>39</v>
+      </c>
+      <c r="I85">
+        <v>8</v>
+      </c>
+      <c r="J85">
+        <v>92783.63623643943</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>9</v>
+      </c>
+      <c r="J86">
+        <v>99508.711397715044</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>105936.50173927273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>15</v>
+      </c>
+      <c r="J88">
+        <v>134791.1704401827</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>20</v>
+      </c>
+      <c r="J89">
+        <v>159914.39077624356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>50</v>
+      </c>
+      <c r="J90">
+        <v>275615.54401867534</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>1972</v>
+      </c>
+      <c r="K99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>52</v>
+      </c>
+      <c r="R99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>1977</v>
+      </c>
+      <c r="K100" t="s">
+        <v>45</v>
+      </c>
+      <c r="P100" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>1979</v>
+      </c>
+      <c r="K101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>1981</v>
+      </c>
+      <c r="K102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>1982</v>
+      </c>
+      <c r="K103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>1983</v>
+      </c>
+      <c r="K104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>1985</v>
+      </c>
+      <c r="K105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>1986</v>
+      </c>
+      <c r="K106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>1991</v>
+      </c>
+      <c r="K107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>2003</v>
+      </c>
+      <c r="K108" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>2011</v>
+      </c>
+      <c r="K109" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
